--- a/trunk/Tomba/Tomba.xlsx
+++ b/trunk/Tomba/Tomba.xlsx
@@ -292,7 +292,7 @@
     <t>Leave Pants!-room</t>
   </si>
   <si>
-    <t>THE NEW</t>
+    <t>THE NEW (There's gonna be a newer)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
